--- a/data/trans_orig/P24E-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P24E-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>32128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>23900</v>
+        <v>24076</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41674</v>
+        <v>42309</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3880446415993978</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2886697547688435</v>
+        <v>0.2907907721112576</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5033494055334765</v>
+        <v>0.5110102528462483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -764,19 +764,19 @@
         <v>33392</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25387</v>
+        <v>24375</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43214</v>
+        <v>42645</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3638759541131053</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2766491473780001</v>
+        <v>0.2656164320190356</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.470911600586609</v>
+        <v>0.4647053289105361</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>65</v>
@@ -785,19 +785,19 @@
         <v>65520</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51945</v>
+        <v>52617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78588</v>
+        <v>78211</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3753391412588413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2975758985568897</v>
+        <v>0.301426364913784</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4502049875558927</v>
+        <v>0.4480455321244722</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>38212</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29427</v>
+        <v>27777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47019</v>
+        <v>45812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4615269985127834</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3554219235589963</v>
+        <v>0.3354938732734407</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5679047223894303</v>
+        <v>0.5533265822858129</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>46</v>
@@ -835,19 +835,19 @@
         <v>46894</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36663</v>
+        <v>37749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55977</v>
+        <v>57072</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5110120568368027</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3995232281403378</v>
+        <v>0.4113603417199916</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6099857372565547</v>
+        <v>0.6219251150199</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -856,19 +856,19 @@
         <v>85106</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72666</v>
+        <v>72293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>100016</v>
+        <v>99192</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4875413373445828</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4162792812385908</v>
+        <v>0.4141426311955815</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5729562740541142</v>
+        <v>0.5682341042860477</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>12455</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6775</v>
+        <v>6634</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>19075</v>
+        <v>19400</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1504283598878187</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08183246794102098</v>
+        <v>0.08013019204764683</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2303891392131875</v>
+        <v>0.2343212603287932</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -906,19 +906,19 @@
         <v>11481</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6094</v>
+        <v>5817</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18699</v>
+        <v>18677</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.125111989050092</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06640720429102938</v>
+        <v>0.06338993833706026</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2037680487397707</v>
+        <v>0.2035238999791772</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -927,19 +927,19 @@
         <v>23936</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16347</v>
+        <v>16097</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34125</v>
+        <v>34131</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1371195213965758</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0936491133502223</v>
+        <v>0.09221218109221789</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1954931161430949</v>
+        <v>0.1955265475166948</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>54050</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43147</v>
+        <v>43784</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>66672</v>
+        <v>67603</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3745592673536935</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2990026502944962</v>
+        <v>0.303414685577384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4620254503130989</v>
+        <v>0.4684782047029191</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1052,19 +1052,19 @@
         <v>36337</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27447</v>
+        <v>27190</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47499</v>
+        <v>46780</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4003855212195536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3024369701919511</v>
+        <v>0.2996014190935495</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5233812605479525</v>
+        <v>0.5154629937966212</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>83</v>
@@ -1073,19 +1073,19 @@
         <v>90387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>74771</v>
+        <v>75738</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>106582</v>
+        <v>107981</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3845306091235049</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3180947047334456</v>
+        <v>0.3222078124291211</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.453430336890798</v>
+        <v>0.4593796484847891</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>77192</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>63693</v>
+        <v>64224</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>88795</v>
+        <v>88587</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5349270583944431</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4413811143008792</v>
+        <v>0.4450647900292706</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6153405594972933</v>
+        <v>0.6138955653867938</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>40</v>
@@ -1123,19 +1123,19 @@
         <v>42061</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32608</v>
+        <v>31747</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>51554</v>
+        <v>51598</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4634643324498866</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3592988748044361</v>
+        <v>0.3498091581451972</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5680619514091391</v>
+        <v>0.5685533436727814</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>113</v>
@@ -1144,19 +1144,19 @@
         <v>119253</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>101431</v>
+        <v>101938</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>134177</v>
+        <v>134498</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5073357837211347</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4315129451543387</v>
+        <v>0.4336737484160477</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5708269448384283</v>
+        <v>0.5721917079982355</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>13061</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7242</v>
+        <v>7482</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21553</v>
+        <v>20572</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09051367425186342</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05018639455937546</v>
+        <v>0.0518473320515236</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1493586440668165</v>
+        <v>0.1425638326669548</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1194,19 +1194,19 @@
         <v>12356</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6969</v>
+        <v>6388</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20567</v>
+        <v>20271</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1361501463305597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07678742806379857</v>
+        <v>0.07038683312604817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2266271774061099</v>
+        <v>0.2233612058843645</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>25</v>
@@ -1215,19 +1215,19 @@
         <v>25418</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>17287</v>
+        <v>16667</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36165</v>
+        <v>35855</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1081336071553604</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07354149829046994</v>
+        <v>0.07090633561732403</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1538540271334013</v>
+        <v>0.152534742660308</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>29678</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20206</v>
+        <v>20781</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41057</v>
+        <v>40437</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2279621132052738</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1552095782461971</v>
+        <v>0.1596247601805469</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3153659440244353</v>
+        <v>0.3106025017482538</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>29</v>
@@ -1340,19 +1340,19 @@
         <v>28929</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21023</v>
+        <v>20816</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>37687</v>
+        <v>37424</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3772559745196854</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2741621562919795</v>
+        <v>0.2714573742086682</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4914747533485601</v>
+        <v>0.4880364114298315</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>57</v>
@@ -1361,19 +1361,19 @@
         <v>58607</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>46688</v>
+        <v>45818</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>72840</v>
+        <v>72818</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2833017706302893</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.225689131301344</v>
+        <v>0.2214814609554142</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.352105459461536</v>
+        <v>0.3519988168781268</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>79098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>67521</v>
+        <v>67100</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90805</v>
+        <v>89991</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.607566752283595</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5186431504307851</v>
+        <v>0.5154114793389084</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6974949485694155</v>
+        <v>0.6912373596885193</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1411,19 +1411,19 @@
         <v>35753</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>26502</v>
+        <v>27664</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>43959</v>
+        <v>44941</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4662463074392741</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3456080199976159</v>
+        <v>0.3607630304283607</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5732630872478285</v>
+        <v>0.586072382702735</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>112</v>
@@ -1432,19 +1432,19 @@
         <v>114851</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100653</v>
+        <v>99552</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>128571</v>
+        <v>128655</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5551826493072152</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4865499981636802</v>
+        <v>0.4812299345018718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6215051975619943</v>
+        <v>0.6219139302963212</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>21412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14225</v>
+        <v>14286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31457</v>
+        <v>31295</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1644711345111311</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1092612686456961</v>
+        <v>0.1097321847974649</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2416240657676387</v>
+        <v>0.2403850072444805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -1482,19 +1482,19 @@
         <v>12001</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6059</v>
+        <v>6960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19725</v>
+        <v>20188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1564977180410405</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07901630558361263</v>
+        <v>0.09076991316594585</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2572310473781895</v>
+        <v>0.2632704385539328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -1503,19 +1503,19 @@
         <v>33413</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>23030</v>
+        <v>23367</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>44213</v>
+        <v>45720</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1615155800624956</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.111327486299576</v>
+        <v>0.1129552537838054</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2137251128593522</v>
+        <v>0.2210067945577911</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>17043</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10881</v>
+        <v>10670</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23932</v>
+        <v>24183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3526770970902067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2251711336490304</v>
+        <v>0.220793973359848</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4952317109862063</v>
+        <v>0.5004282674446624</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1628,19 +1628,19 @@
         <v>10839</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5982</v>
+        <v>5946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16159</v>
+        <v>17071</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3508170289235534</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1936085654811342</v>
+        <v>0.1924479785923187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5229835567165553</v>
+        <v>0.5525125386627938</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -1649,19 +1649,19 @@
         <v>27882</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19697</v>
+        <v>19084</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>36635</v>
+        <v>36480</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3519516467622077</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2486310100615569</v>
+        <v>0.2408959436191987</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4624463219945036</v>
+        <v>0.4604809724119907</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>21905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>15243</v>
+        <v>15320</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28769</v>
+        <v>28789</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.453284848525817</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3154410281999791</v>
+        <v>0.3170331522922626</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5953286643091494</v>
+        <v>0.5957434651577255</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1699,19 +1699,19 @@
         <v>14481</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>8734</v>
+        <v>9022</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19579</v>
+        <v>20604</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.468675613444917</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2826799532015015</v>
+        <v>0.2920026687747634</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6336910519970642</v>
+        <v>0.6668469232831956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>37</v>
@@ -1720,19 +1720,19 @@
         <v>36385</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28276</v>
+        <v>27844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>45464</v>
+        <v>46302</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4592874433010426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3569240926198292</v>
+        <v>0.3514750985872526</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5738858492729113</v>
+        <v>0.584465270188075</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>9377</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4615</v>
+        <v>4538</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16056</v>
+        <v>15758</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1940380543839763</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09550973507889919</v>
+        <v>0.09390278423452644</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3322501401154005</v>
+        <v>0.3260803723614725</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -1770,19 +1770,19 @@
         <v>5577</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10832</v>
+        <v>11249</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1805073576315296</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06432518137087542</v>
+        <v>0.06445426821615462</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3505917751160628</v>
+        <v>0.3640717608190788</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>14</v>
@@ -1791,19 +1791,19 @@
         <v>14954</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>8335</v>
+        <v>8913</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22958</v>
+        <v>23753</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1887609099367498</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1052172508128672</v>
+        <v>0.1125018117832063</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2897920956607968</v>
+        <v>0.299838175520788</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>132899</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>114194</v>
+        <v>114265</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152626</v>
+        <v>153503</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3276517861619355</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2815366520136935</v>
+        <v>0.2817124511301459</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3762893635533627</v>
+        <v>0.3784495386513882</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>104</v>
@@ -1916,19 +1916,19 @@
         <v>109496</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93987</v>
+        <v>92145</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>127569</v>
+        <v>126241</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3774434034734735</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3239804768039824</v>
+        <v>0.3176302209581996</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.43974135046206</v>
+        <v>0.435162324187426</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -1937,19 +1937,19 @@
         <v>242395</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>218342</v>
+        <v>219321</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>270273</v>
+        <v>269076</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3484141057545211</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3138416659261658</v>
+        <v>0.3152485477302959</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3884854828231522</v>
+        <v>0.3867646832653178</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>216406</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>196400</v>
+        <v>195430</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>234847</v>
+        <v>235549</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5335327788551021</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4842113223805923</v>
+        <v>0.4818182129250645</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5789981496761892</v>
+        <v>0.5807296011443885</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>137</v>
@@ -1987,19 +1987,19 @@
         <v>139189</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>121932</v>
+        <v>122644</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>154731</v>
+        <v>156235</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4797953924154065</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4203089913472653</v>
+        <v>0.4227654034597031</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5333700095826492</v>
+        <v>0.5385556369341499</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>346</v>
@@ -2008,19 +2008,19 @@
         <v>355594</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>326535</v>
+        <v>327893</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>381181</v>
+        <v>381029</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.511125135730148</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4693564271725125</v>
+        <v>0.4713077514311068</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5479032002264147</v>
+        <v>0.5476841157280609</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>56305</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>43276</v>
+        <v>42273</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70755</v>
+        <v>71285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1388154349829624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1066927149851933</v>
+        <v>0.1042205101081269</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1744412089503227</v>
+        <v>0.1757482551099736</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>40</v>
@@ -2058,19 +2058,19 @@
         <v>41415</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>31613</v>
+        <v>30549</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>55018</v>
+        <v>54226</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1427612041111199</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1089715695955369</v>
+        <v>0.1053060903171262</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1896505902103841</v>
+        <v>0.1869228268103156</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>96</v>
@@ -2079,19 +2079,19 @@
         <v>97720</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>80497</v>
+        <v>80714</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>116977</v>
+        <v>116630</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.140460758515331</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1157053255266983</v>
+        <v>0.1160163845348239</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.168141042755456</v>
+        <v>0.16764212778684</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>86459</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>71886</v>
+        <v>72351</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102298</v>
+        <v>101626</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3673391565184498</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3054222458911866</v>
+        <v>0.3073983202439495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4346371608312892</v>
+        <v>0.4317809269319496</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>78</v>
@@ -2444,19 +2444,19 @@
         <v>84810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>70537</v>
+        <v>68434</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>98907</v>
+        <v>98304</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4385399161509815</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3647364793000991</v>
+        <v>0.3538620368808295</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5114341540932559</v>
+        <v>0.5083142328763325</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -2465,19 +2465,19 @@
         <v>171269</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>151240</v>
+        <v>150824</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>192726</v>
+        <v>193325</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3994544444731197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3527416727957808</v>
+        <v>0.3517696823202472</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4494993366512943</v>
+        <v>0.4508963579593005</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>114235</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98543</v>
+        <v>98714</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132245</v>
+        <v>129658</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4853530148010106</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4186821151565882</v>
+        <v>0.4194077874935361</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5618716781664379</v>
+        <v>0.5508823764479801</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>76</v>
@@ -2515,19 +2515,19 @@
         <v>83278</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70157</v>
+        <v>68949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>99177</v>
+        <v>98520</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4306168051559724</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3627695692360797</v>
+        <v>0.3565242276464855</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.512828618013527</v>
+        <v>0.5094327937978312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>181</v>
@@ -2536,19 +2536,19 @@
         <v>197513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>176398</v>
+        <v>175755</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>220420</v>
+        <v>219178</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4606641049723799</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4114162757716223</v>
+        <v>0.4099171603991829</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5140917519168442</v>
+        <v>0.5111931327436062</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>34671</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22486</v>
+        <v>23820</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46983</v>
+        <v>48392</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1473078286805397</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09553551458787392</v>
+        <v>0.1012028615189673</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1996161287243307</v>
+        <v>0.2056034546687413</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -2586,19 +2586,19 @@
         <v>25304</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16126</v>
+        <v>16884</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36551</v>
+        <v>36572</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1308432786930461</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08338324247734324</v>
+        <v>0.0873043101097901</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1890016132204027</v>
+        <v>0.1891064790138233</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>50</v>
@@ -2607,19 +2607,19 @@
         <v>59975</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45611</v>
+        <v>45551</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>78406</v>
+        <v>76981</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1398814505545004</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1063799980854673</v>
+        <v>0.1062394336958802</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1828685320467015</v>
+        <v>0.1795438630206946</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>73223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>58668</v>
+        <v>59472</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>86652</v>
+        <v>87431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3890261543429228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3116948975607527</v>
+        <v>0.3159654080200755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4603701001889254</v>
+        <v>0.4645095828776533</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>70</v>
@@ -2732,19 +2732,19 @@
         <v>76455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64499</v>
+        <v>62952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89090</v>
+        <v>88152</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5257738724234807</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4435525755280935</v>
+        <v>0.4329163089440675</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6126648335082833</v>
+        <v>0.6062109426782603</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>138</v>
@@ -2753,19 +2753,19 @@
         <v>149678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>131259</v>
+        <v>130920</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167708</v>
+        <v>168108</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4486270266048899</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3934184960844699</v>
+        <v>0.392403966883885</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.502667213189537</v>
+        <v>0.5038662858898078</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>89049</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74411</v>
+        <v>75244</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>104219</v>
+        <v>104836</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4731054232256676</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3953343318517105</v>
+        <v>0.3997642076611307</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5537049824846726</v>
+        <v>0.5569782461317405</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -2803,19 +2803,19 @@
         <v>50898</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39608</v>
+        <v>39211</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63099</v>
+        <v>63415</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3500182807409618</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2723831122861068</v>
+        <v>0.2696496896851475</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4339267524163171</v>
+        <v>0.4361009632692643</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>132</v>
@@ -2824,19 +2824,19 @@
         <v>139946</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>122397</v>
+        <v>122019</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>159640</v>
+        <v>159338</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4194584508352412</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3668582608709473</v>
+        <v>0.3657247697466579</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4784840978383594</v>
+        <v>0.4775792010154498</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>25950</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17135</v>
+        <v>16052</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38388</v>
+        <v>37142</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1378684224314096</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09103501588592015</v>
+        <v>0.08528442926180434</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2039518819495333</v>
+        <v>0.1973314446124614</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -2874,19 +2874,19 @@
         <v>18062</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11060</v>
+        <v>11333</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28198</v>
+        <v>27343</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1242078468355575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07606200844716313</v>
+        <v>0.07793567437963593</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1939183235092265</v>
+        <v>0.1880373560281664</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>38</v>
@@ -2895,19 +2895,19 @@
         <v>44011</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31628</v>
+        <v>30595</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>59172</v>
+        <v>57729</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1319145225598688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09479662350582826</v>
+        <v>0.09170266597506675</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.177355039101021</v>
+        <v>0.1730302339900191</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>44668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>34149</v>
+        <v>33863</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>55359</v>
+        <v>55301</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3767329483908956</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2880095530464095</v>
+        <v>0.2856001214701137</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4668924349179526</v>
+        <v>0.4664099942854611</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -3020,19 +3020,19 @@
         <v>36960</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27943</v>
+        <v>27463</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>46734</v>
+        <v>46219</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4078089548380664</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3083192256255075</v>
+        <v>0.303014940503606</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.515656459651914</v>
+        <v>0.5099680161614446</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>77</v>
@@ -3041,19 +3041,19 @@
         <v>81629</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67211</v>
+        <v>65913</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>96965</v>
+        <v>96808</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3901959680931876</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3212757952905244</v>
+        <v>0.3150711395056857</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4635056876357762</v>
+        <v>0.4627534000727111</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>60436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47870</v>
+        <v>50086</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71390</v>
+        <v>72271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5097145671016523</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4037367342631324</v>
+        <v>0.4224280878332455</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6021001816920662</v>
+        <v>0.6095320609125127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>40</v>
@@ -3091,19 +3091,19 @@
         <v>43661</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34559</v>
+        <v>33962</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53189</v>
+        <v>53898</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4817472970629244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3813178058465093</v>
+        <v>0.3747313319153586</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5868720764080942</v>
+        <v>0.5946925636764901</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>93</v>
@@ -3112,19 +3112,19 @@
         <v>104097</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>88067</v>
+        <v>89538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118860</v>
+        <v>121159</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4975983414150988</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4209746266989641</v>
+        <v>0.4280051449209144</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5681688491733591</v>
+        <v>0.5791572467182109</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>13464</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7238</v>
+        <v>7327</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22471</v>
+        <v>22845</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.113552484507452</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0610476885267052</v>
+        <v>0.06179198836931239</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1895157602274957</v>
+        <v>0.1926765428624533</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -3162,19 +3162,19 @@
         <v>10010</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5707</v>
+        <v>5184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>16506</v>
+        <v>17844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1104437480990092</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06296812329398765</v>
+        <v>0.05719558378495533</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1821198084501471</v>
+        <v>0.1968852402129543</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -3183,19 +3183,19 @@
         <v>23473</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14516</v>
+        <v>14724</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34530</v>
+        <v>33397</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1122056904917136</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06939004717361981</v>
+        <v>0.07038277539480597</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.165056840262476</v>
+        <v>0.1596426491863299</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>34709</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25029</v>
+        <v>25485</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44717</v>
+        <v>44397</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4504215130888374</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3248049853084787</v>
+        <v>0.3307302108677641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5803034504145534</v>
+        <v>0.5761513229475071</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -3308,19 +3308,19 @@
         <v>23305</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16066</v>
+        <v>16105</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31839</v>
+        <v>31960</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3981871732758052</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2745075251004799</v>
+        <v>0.2751769449725638</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.544011550320727</v>
+        <v>0.5460759746020639</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3329,19 +3329,19 @@
         <v>58013</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46644</v>
+        <v>46400</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>71891</v>
+        <v>70936</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4278737959635404</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3440207439882381</v>
+        <v>0.3422189905334483</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5302303035962224</v>
+        <v>0.5231831540720369</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>35100</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25619</v>
+        <v>25614</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45426</v>
+        <v>44763</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4554962562454213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.332468727784728</v>
+        <v>0.3323939085647067</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5895028458845026</v>
+        <v>0.5809053791028846</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>21</v>
@@ -3379,19 +3379,19 @@
         <v>24237</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16173</v>
+        <v>16763</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32065</v>
+        <v>32107</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4141124157872594</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.276333019415558</v>
+        <v>0.2864223136896324</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5478716595423798</v>
+        <v>0.5485868269694834</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -3400,19 +3400,19 @@
         <v>59336</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>47600</v>
+        <v>47383</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>72622</v>
+        <v>73520</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4376323159419919</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3510711941301862</v>
+        <v>0.3494734889990994</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5356226754154847</v>
+        <v>0.5422419266054888</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>7250</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3151</v>
+        <v>3157</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13779</v>
+        <v>13983</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0940822306657413</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04088961372710698</v>
+        <v>0.04097484108864319</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.17881739349373</v>
+        <v>0.1814638979982541</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -3450,19 +3450,19 @@
         <v>10986</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6107</v>
+        <v>5969</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19070</v>
+        <v>17954</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1877004109369354</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1043481557607438</v>
+        <v>0.1019829899978252</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3258355767190158</v>
+        <v>0.3067647066254086</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -3471,19 +3471,19 @@
         <v>18235</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>11293</v>
+        <v>11042</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>27133</v>
+        <v>27357</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1344938880944677</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08329112783450172</v>
+        <v>0.08144149346913769</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2001190385216541</v>
+        <v>0.201773326298552</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>239059</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211365</v>
+        <v>213082</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>263349</v>
+        <v>266535</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3860692631369285</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3413447301131849</v>
+        <v>0.3441168923705349</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4252957056710515</v>
+        <v>0.4304414283572591</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>205</v>
@@ -3596,19 +3596,19 @@
         <v>221530</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198926</v>
+        <v>198603</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>244427</v>
+        <v>245391</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.45398797076454</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4076651419570134</v>
+        <v>0.4070040658397301</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5009126300249218</v>
+        <v>0.5028877521846702</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>431</v>
@@ -3617,19 +3617,19 @@
         <v>460589</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>427045</v>
+        <v>426954</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>495795</v>
+        <v>496680</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4160029429439815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3857061890289025</v>
+        <v>0.3856238061760813</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.447800792703501</v>
+        <v>0.4486004845085288</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>298819</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>273879</v>
+        <v>271661</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>326877</v>
+        <v>324030</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4825793912759238</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4423020810225832</v>
+        <v>0.4387197978735448</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5278916939463997</v>
+        <v>0.5232930223219985</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>184</v>
@@ -3667,19 +3667,19 @@
         <v>202073</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>179726</v>
+        <v>182168</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>223670</v>
+        <v>225276</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4141154332158358</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3683190416365434</v>
+        <v>0.3733227763125722</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4583742049871304</v>
+        <v>0.4616642981510664</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>457</v>
@@ -3688,19 +3688,19 @@
         <v>500893</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>465957</v>
+        <v>467776</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>536653</v>
+        <v>533447</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4524054043071106</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4208518489976031</v>
+        <v>0.4224942416232732</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4847035081608816</v>
+        <v>0.4818080195262378</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>81334</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63363</v>
+        <v>64902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99339</v>
+        <v>100705</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1313513455871478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1023287113568747</v>
+        <v>0.1048140556018801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1604275072767031</v>
+        <v>0.1626341578831868</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -3738,19 +3738,19 @@
         <v>64361</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50157</v>
+        <v>50299</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81785</v>
+        <v>81806</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1318965960196241</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1027882004190407</v>
+        <v>0.1030790699553978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1676052268482024</v>
+        <v>0.1676478213639506</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -3759,19 +3759,19 @@
         <v>145695</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>123519</v>
+        <v>121576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>172385</v>
+        <v>171098</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1315916527489079</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1115622653581108</v>
+        <v>0.1098068439448065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1556977016949236</v>
+        <v>0.1545351927630055</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>45357</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34156</v>
+        <v>33587</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57653</v>
+        <v>57598</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2182650892631265</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1643643310915083</v>
+        <v>0.1616272277478963</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2774383277566451</v>
+        <v>0.2771747576831462</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>50</v>
@@ -4124,19 +4124,19 @@
         <v>50415</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>39228</v>
+        <v>39730</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63282</v>
+        <v>62483</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2896183750796879</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.225352691145345</v>
+        <v>0.2282387670998528</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.363537960009543</v>
+        <v>0.3589470741294332</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>92</v>
@@ -4145,19 +4145,19 @@
         <v>95772</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>80212</v>
+        <v>79021</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>113384</v>
+        <v>113987</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2507903508139704</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2100454386588262</v>
+        <v>0.2069269221059412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2969110204256535</v>
+        <v>0.2984892131265405</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>127316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>111532</v>
+        <v>112581</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140971</v>
+        <v>140975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6126721550425815</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.536716095266793</v>
+        <v>0.5417615918074188</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6783831602010219</v>
+        <v>0.6783994409281767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -4195,19 +4195,19 @@
         <v>89612</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>75941</v>
+        <v>75901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>101521</v>
+        <v>103138</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5147934969650558</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4362587977616679</v>
+        <v>0.4360273296977046</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5832103504794091</v>
+        <v>0.5925003544120307</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>207</v>
@@ -4216,19 +4216,19 @@
         <v>216929</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>195878</v>
+        <v>198650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>236510</v>
+        <v>236114</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5680557240291378</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5129326657883883</v>
+        <v>0.5201919877147012</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.619332129797966</v>
+        <v>0.6182955525971413</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>35132</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25098</v>
+        <v>25075</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>46290</v>
+        <v>47499</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1690627556942919</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.120776518387977</v>
+        <v>0.1206648358269778</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2227568597408476</v>
+        <v>0.228576957511985</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -4266,19 +4266,19 @@
         <v>34047</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24592</v>
+        <v>25114</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>45823</v>
+        <v>46671</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1955881279552563</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1412758898351921</v>
+        <v>0.1442732676522616</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2632419948926594</v>
+        <v>0.2681129062437991</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -4287,19 +4287,19 @@
         <v>69179</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>55165</v>
+        <v>55676</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>86324</v>
+        <v>86604</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1811539251568917</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1444555096663858</v>
+        <v>0.1457954355463999</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2260498498316222</v>
+        <v>0.2267828545081782</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>46121</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>34434</v>
+        <v>35462</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>57348</v>
+        <v>57192</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3293910439898904</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2459254485770289</v>
+        <v>0.2532650279368818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4095727069067494</v>
+        <v>0.408461044890623</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>37</v>
@@ -4412,19 +4412,19 @@
         <v>37495</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28388</v>
+        <v>28513</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47991</v>
+        <v>47577</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3342582549478814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2530722098570787</v>
+        <v>0.254185132979899</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.427819758695939</v>
+        <v>0.424127560360692</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -4433,19 +4433,19 @@
         <v>83616</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>68235</v>
+        <v>69142</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>97668</v>
+        <v>99716</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3315559724302968</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2705678419617037</v>
+        <v>0.274164151674276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3872752509852986</v>
+        <v>0.3953957344103066</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>63860</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>52247</v>
+        <v>51741</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>75625</v>
+        <v>75786</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4560812974451252</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3731434607941641</v>
+        <v>0.3695300424598009</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5401086933274299</v>
+        <v>0.5412617535749082</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>57</v>
@@ -4483,19 +4483,19 @@
         <v>58946</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48651</v>
+        <v>47884</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>69300</v>
+        <v>68827</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5254799814521194</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4337042114696297</v>
+        <v>0.4268670776878327</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6177861440084895</v>
+        <v>0.6135666281258637</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>119</v>
@@ -4504,19 +4504,19 @@
         <v>122805</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>108512</v>
+        <v>107458</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>139846</v>
+        <v>138762</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4869497323722886</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4302748010824831</v>
+        <v>0.4260955581053029</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5545211929860769</v>
+        <v>0.5502200916363523</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>30038</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21426</v>
+        <v>21522</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41642</v>
+        <v>41885</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2145276585649843</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1530219257331986</v>
+        <v>0.1537062439656327</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2974054727044514</v>
+        <v>0.2991383642055099</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -4554,19 +4554,19 @@
         <v>15734</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9403</v>
+        <v>9238</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24036</v>
+        <v>24838</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1402617635999992</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08382304467293569</v>
+        <v>0.08235371076358211</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2142701926847965</v>
+        <v>0.2214250568015023</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -4575,19 +4575,19 @@
         <v>45772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>34489</v>
+        <v>33367</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58916</v>
+        <v>58028</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1814942951974146</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1367562626363407</v>
+        <v>0.1323082439266681</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2336161356593397</v>
+        <v>0.2300926949549896</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>20343</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12592</v>
+        <v>13497</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28935</v>
+        <v>30336</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2259749030056107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1398689130320559</v>
+        <v>0.149927037347699</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3214115173810021</v>
+        <v>0.336967742690065</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>24</v>
@@ -4700,19 +4700,19 @@
         <v>26135</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18405</v>
+        <v>17570</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34503</v>
+        <v>34896</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3637170864303756</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2561352930554124</v>
+        <v>0.244520860158237</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4801627412377055</v>
+        <v>0.4856426891868051</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -4721,19 +4721,19 @@
         <v>46479</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35504</v>
+        <v>34681</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60061</v>
+        <v>57408</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.287116283093298</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2193241474341553</v>
+        <v>0.2142392107382938</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3710195660829453</v>
+        <v>0.354633275094816</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>55747</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45962</v>
+        <v>45921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>64902</v>
+        <v>64967</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6192393565418337</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5105518883282162</v>
+        <v>0.5100891504219545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7209323028607288</v>
+        <v>0.7216578780817291</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -4771,19 +4771,19 @@
         <v>41732</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>33321</v>
+        <v>33158</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49604</v>
+        <v>50594</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5807754426244487</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4637230542607344</v>
+        <v>0.4614480169597699</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6903242386873226</v>
+        <v>0.704108433799115</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>88</v>
@@ -4792,19 +4792,19 @@
         <v>97479</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83641</v>
+        <v>85107</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108984</v>
+        <v>109752</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6021658884000466</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5166843988791968</v>
+        <v>0.5257373368265332</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6732327829958474</v>
+        <v>0.677982001542596</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>13935</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8065</v>
+        <v>7719</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21566</v>
+        <v>22156</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1547857404525555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08958742617217973</v>
+        <v>0.08574228228770978</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2395564419518863</v>
+        <v>0.2461148705273304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -4842,19 +4842,19 @@
         <v>3989</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>945</v>
+        <v>1014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>9200</v>
+        <v>9386</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05550747094517573</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01314927552008364</v>
+        <v>0.01411068064412959</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1280335100477362</v>
+        <v>0.1306200669807222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -4863,19 +4863,19 @@
         <v>17923</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10747</v>
+        <v>10963</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27490</v>
+        <v>26735</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1107178285066554</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06638961166894082</v>
+        <v>0.06772499334040442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1698136599152471</v>
+        <v>0.1651524371860017</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>18401</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11899</v>
+        <v>10991</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26761</v>
+        <v>26010</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3159150505875958</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2042858298251625</v>
+        <v>0.1887076399635338</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4594447140582016</v>
+        <v>0.4465567672237112</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4988,19 +4988,19 @@
         <v>8602</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3977</v>
+        <v>4080</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14361</v>
+        <v>15278</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2323529121996436</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1074128336778373</v>
+        <v>0.1102167219026436</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3879085760827744</v>
+        <v>0.4126830994925003</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -5009,19 +5009,19 @@
         <v>27003</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18011</v>
+        <v>18913</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>37308</v>
+        <v>36383</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2834420795748343</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1890606909364429</v>
+        <v>0.1985282427197702</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.391609819695471</v>
+        <v>0.3819057291571616</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>25046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18225</v>
+        <v>17729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33784</v>
+        <v>33301</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4300060168228413</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3128959837084459</v>
+        <v>0.3043803900769579</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5800180232134141</v>
+        <v>0.5717229512039835</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>16</v>
@@ -5059,19 +5059,19 @@
         <v>15657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10007</v>
+        <v>9830</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22083</v>
+        <v>22039</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4229177210519077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2703108141034971</v>
+        <v>0.2655215426202102</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5964834094375328</v>
+        <v>0.5952839630116968</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>39</v>
@@ -5080,19 +5080,19 @@
         <v>40703</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>30577</v>
+        <v>31907</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>50457</v>
+        <v>50930</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.42725144366878</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3209598630036607</v>
+        <v>0.3349210550829285</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.529637397942353</v>
+        <v>0.5345991626468085</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>14799</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8484</v>
+        <v>8779</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22817</v>
+        <v>22535</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2540789325895629</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1456524207786425</v>
+        <v>0.1507280058841338</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3917422045292587</v>
+        <v>0.3868929206575794</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>12</v>
@@ -5130,19 +5130,19 @@
         <v>12763</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>7465</v>
+        <v>7642</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19010</v>
+        <v>19349</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3447293667484487</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2016438480319328</v>
+        <v>0.2064167525424135</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5134713687340535</v>
+        <v>0.5226337037529788</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>25</v>
@@ -5151,19 +5151,19 @@
         <v>27562</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>18611</v>
+        <v>19104</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>37819</v>
+        <v>37662</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2893064767563857</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1953517690220102</v>
+        <v>0.2005266899901723</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3969794264087952</v>
+        <v>0.3953226207169814</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>130222</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>108885</v>
+        <v>110645</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148395</v>
+        <v>151015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2624934763941177</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2194843917271036</v>
+        <v>0.2230314905003913</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2991256511920841</v>
+        <v>0.3044073346388411</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -5276,19 +5276,19 @@
         <v>122648</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104409</v>
+        <v>104400</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>141513</v>
+        <v>141405</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.310401199913294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2642428449064042</v>
+        <v>0.2642194433378012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3581465311216731</v>
+        <v>0.35787203808593</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>240</v>
@@ -5297,19 +5297,19 @@
         <v>252869</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>227694</v>
+        <v>226071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>284222</v>
+        <v>282292</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.283733573293159</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2554850605870116</v>
+        <v>0.2536643085154505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3189126934184981</v>
+        <v>0.3167470557645867</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>271970</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>248564</v>
+        <v>248007</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>294733</v>
+        <v>295471</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5482208185773951</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5010402879954731</v>
+        <v>0.4999189063443497</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.594106295207801</v>
+        <v>0.5955927735252079</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>200</v>
@@ -5347,19 +5347,19 @@
         <v>205947</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>186734</v>
+        <v>184923</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>226405</v>
+        <v>224993</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5212181082330618</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4725928805608089</v>
+        <v>0.4680079970344661</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5729932598658255</v>
+        <v>0.5694204257527438</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>453</v>
@@ -5368,19 +5368,19 @@
         <v>477916</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>445149</v>
+        <v>447914</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>507725</v>
+        <v>508630</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.5362490498912706</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4994820431526477</v>
+        <v>0.5025841580748815</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5696955973375459</v>
+        <v>0.5707117413040433</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>93904</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>78559</v>
+        <v>76684</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>113224</v>
+        <v>113198</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1892857050284872</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1583549476447605</v>
+        <v>0.1545754607539493</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2282300899877517</v>
+        <v>0.2281770662005581</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>63</v>
@@ -5418,19 +5418,19 @@
         <v>66532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>51800</v>
+        <v>52508</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83477</v>
+        <v>81264</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1683806918536442</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1310962256096699</v>
+        <v>0.1328892045212218</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2112652463679811</v>
+        <v>0.2056648482813197</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -5439,19 +5439,19 @@
         <v>160435</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136319</v>
+        <v>138293</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>184607</v>
+        <v>185765</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1800173768155704</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1529577185007942</v>
+        <v>0.1551725469631486</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2071394894526047</v>
+        <v>0.2084392276540396</v>
       </c>
     </row>
     <row r="23">
